--- a/resources/cards.xlsx
+++ b/resources/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loulo\Documents\Github\7-wonders-analytics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBDE2A7-B95D-4191-A6C2-0391E20D6363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C7690A-543C-48B7-A18F-A17E381FA799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40AD92D5-9ADA-49ED-AFAF-2A98F51D8BCD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -65,16 +65,205 @@
     <t>{"wheel" : 1}</t>
   </si>
   <si>
-    <t>cavite</t>
-  </si>
-  <si>
-    <t>raw materials</t>
-  </si>
-  <si>
-    <t>scientific building</t>
-  </si>
-  <si>
     <t>{"stone" : 1}</t>
+  </si>
+  <si>
+    <t>scientific_building</t>
+  </si>
+  <si>
+    <t>raw_materials</t>
+  </si>
+  <si>
+    <t>shortcut</t>
+  </si>
+  <si>
+    <t>["target", "lamp"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>min_players</t>
+  </si>
+  <si>
+    <t>cavité</t>
+  </si>
+  <si>
+    <t>métier à tisser</t>
+  </si>
+  <si>
+    <t>manufactured_goods</t>
+  </si>
+  <si>
+    <t>{"cloth" : 1}</t>
+  </si>
+  <si>
+    <t>théatre</t>
+  </si>
+  <si>
+    <t>civil_buildings</t>
+  </si>
+  <si>
+    <t>["mask"]</t>
+  </si>
+  <si>
+    <t>comercial_buildings</t>
+  </si>
+  <si>
+    <t>{"discount" : "manufactured_goods"}</t>
+  </si>
+  <si>
+    <t>["camel"]</t>
+  </si>
+  <si>
+    <t>marché</t>
+  </si>
+  <si>
+    <t>bains</t>
+  </si>
+  <si>
+    <t>["water"]</t>
+  </si>
+  <si>
+    <t>palissade</t>
+  </si>
+  <si>
+    <t>war_buildings</t>
+  </si>
+  <si>
+    <t>{"wood" : 1}</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>comptoire ouest</t>
+  </si>
+  <si>
+    <t>{"left_discount" : "raw_materials"}</t>
+  </si>
+  <si>
+    <t>["arbour"]</t>
+  </si>
+  <si>
+    <t>comptoire est</t>
+  </si>
+  <si>
+    <t>{"right_discount" : "raw_materials"}</t>
+  </si>
+  <si>
+    <t>puits</t>
+  </si>
+  <si>
+    <t>["hammer"]</t>
+  </si>
+  <si>
+    <t>taverne</t>
+  </si>
+  <si>
+    <t>{"coins" : 5}</t>
+  </si>
+  <si>
+    <t>friche</t>
+  </si>
+  <si>
+    <t>{"coins : 1"}</t>
+  </si>
+  <si>
+    <t>{"wood" : 1, "clay" : 1, "choice" : 1}</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>{"stone" : 1, "ore" : 1, "choice" : 1}</t>
+  </si>
+  <si>
+    <t>verrerie</t>
+  </si>
+  <si>
+    <t>{"water" : 1}</t>
+  </si>
+  <si>
+    <t>presse</t>
+  </si>
+  <si>
+    <t>{"papyrus" : 1}</t>
+  </si>
+  <si>
+    <t>chantier</t>
+  </si>
+  <si>
+    <t>tour de garde</t>
+  </si>
+  <si>
+    <t>{"clay" : 1}</t>
+  </si>
+  <si>
+    <t>fosse argileuse</t>
+  </si>
+  <si>
+    <t>{"coins" : 1}</t>
+  </si>
+  <si>
+    <t>{"ore" : 1, "clay" : 1, "choice" : 1}</t>
+  </si>
+  <si>
+    <t>bassin argileux</t>
+  </si>
+  <si>
+    <t>caserne</t>
+  </si>
+  <si>
+    <t>{"ore" : 1}</t>
+  </si>
+  <si>
+    <t>gisement</t>
+  </si>
+  <si>
+    <t>{"wood" : 1, "ore" : 1, "choice" : 1}</t>
+  </si>
+  <si>
+    <t>excavation</t>
+  </si>
+  <si>
+    <t>{"stone" : 1, "clay" : 1, "choice" : 1}</t>
+  </si>
+  <si>
+    <t>filon</t>
+  </si>
+  <si>
+    <t>officine</t>
+  </si>
+  <si>
+    <t>{"compass" : 1}</t>
+  </si>
+  <si>
+    <t>["horseshoe", "bowl"]</t>
+  </si>
+  <si>
+    <t>autel</t>
+  </si>
+  <si>
+    <t>["star"]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>scriptorium</t>
+  </si>
+  <si>
+    <t>{"tablet" : 1}</t>
+  </si>
+  <si>
+    <t>["balance", "book"]</t>
+  </si>
+  <si>
+    <t>exploitation forestière</t>
+  </si>
+  <si>
+    <t>{"wood" : 1, "stone" : 1}</t>
   </si>
 </sst>
 </file>
@@ -110,8 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,14 +320,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7518375-0552-4075-A161-238AF7AB5D22}" name="Tableau1" displayName="Tableau1" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{E7518375-0552-4075-A161-238AF7AB5D22}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7518375-0552-4075-A161-238AF7AB5D22}" name="Tableau1" displayName="Tableau1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50" xr:uid="{E7518375-0552-4075-A161-238AF7AB5D22}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66716A27-5005-4B9F-A26D-42C0EF67E95D}" name="name"/>
     <tableColumn id="2" xr3:uid="{6EA378BC-4062-4BFB-99AF-F8E0770DD696}" name="card_type"/>
     <tableColumn id="3" xr3:uid="{7355B9DB-AB78-4BE7-92C7-57F411063D01}" name="cost"/>
     <tableColumn id="4" xr3:uid="{2D2D969E-1FCF-4E0E-9979-D2605F64BA03}" name="effect"/>
+    <tableColumn id="8" xr3:uid="{D1072664-1170-415F-A547-8CBBD3FF8C72}" name="war"/>
     <tableColumn id="5" xr3:uid="{15B0C443-3623-456A-BAA4-22A9F44C11A7}" name="points"/>
+    <tableColumn id="6" xr3:uid="{029EF03A-D220-4D9D-98B0-F806DB54DAD2}" name="shortcut"/>
+    <tableColumn id="7" xr3:uid="{AEE4E2E4-D591-46E1-9B5C-FCF0F4F7D823}" name="min_players"/>
+    <tableColumn id="9" xr3:uid="{3A74783B-0326-41DD-B2BF-4C1BF483E070}" name="age"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,20 +654,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD11687C-AC5A-4328-963E-8DE8F27A029D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,15 +686,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -506,28 +717,1416 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/cards.xlsx
+++ b/resources/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loulo\Documents\Github\7-wonders-analytics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C7690A-543C-48B7-A18F-A17E381FA799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8308869-FF68-45B4-BBB6-CF13A2FAFD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40AD92D5-9ADA-49ED-AFAF-2A98F51D8BCD}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>{"stone" : 1}</t>
   </si>
   <si>
-    <t>scientific_building</t>
-  </si>
-  <si>
     <t>raw_materials</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>{"wood" : 1, "stone" : 1}</t>
+  </si>
+  <si>
+    <t>scientific_buildings</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,19 +686,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -761,17 +761,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -790,25 +790,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -819,25 +819,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -866,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -877,14 +877,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -906,25 +906,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -935,17 +935,17 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -964,25 +964,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -1022,17 +1022,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1051,17 +1051,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -1080,17 +1080,17 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1109,17 +1109,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -1138,17 +1138,17 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -1167,25 +1167,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1196,14 +1196,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1254,14 +1254,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1283,17 +1283,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
       <c r="E22">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1370,14 +1370,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1399,14 +1399,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1428,17 +1428,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1457,17 +1457,17 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
       <c r="E28">
         <v>0</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -1515,17 +1515,17 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
       <c r="E30">
         <v>0</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -1544,17 +1544,17 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
       <c r="E31">
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -1573,25 +1573,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>66</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -1602,25 +1602,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1631,14 +1631,14 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1660,25 +1660,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>72</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>73</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -1689,25 +1689,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>34</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -1718,17 +1718,17 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
       <c r="E37">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1747,25 +1747,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>24</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -1776,25 +1776,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>72</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>73</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
         <v>65</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>66</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1834,17 +1834,17 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -1892,17 +1892,17 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
       <c r="E43">
         <v>0</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -1921,17 +1921,17 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
       <c r="E44">
         <v>0</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -1950,17 +1950,17 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>37</v>
-      </c>
       <c r="E45">
         <v>0</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -1979,25 +1979,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>21</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2008,25 +2008,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2098,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>3</v>
